--- a/data/trans_orig/P45D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45D-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>20005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11769</v>
+        <v>12091</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29689</v>
+        <v>30187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0295980642472633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01741204820932779</v>
+        <v>0.01788985198251582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04392670578575041</v>
+        <v>0.04466318167065176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>3571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>960</v>
+        <v>836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8920</v>
+        <v>8549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005236813487771249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001407903858540499</v>
+        <v>0.001226359011101176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01308051446418011</v>
+        <v>0.01253691379222385</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -785,19 +785,19 @@
         <v>23576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14065</v>
+        <v>14126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34030</v>
+        <v>34179</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01736336529698191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01035840723496402</v>
+        <v>0.01040369348102257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02506227372035011</v>
+        <v>0.02517229831989945</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>60394</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46183</v>
+        <v>47966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75586</v>
+        <v>76951</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08935585906089641</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0683298573615097</v>
+        <v>0.0709671914208185</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1118332584477371</v>
+        <v>0.1138528069000476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -835,19 +835,19 @@
         <v>26349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17517</v>
+        <v>18005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38078</v>
+        <v>38236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03863914293632666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02568804455798008</v>
+        <v>0.02640365558263909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05583967769650226</v>
+        <v>0.05607201390587404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -856,19 +856,19 @@
         <v>86743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>69377</v>
+        <v>69272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105913</v>
+        <v>106283</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06388492738924481</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05109515466312176</v>
+        <v>0.05101821785080159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07800345355025329</v>
+        <v>0.07827634753681571</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>115670</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96783</v>
+        <v>96239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136058</v>
+        <v>137684</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1711380211819987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1431949451252385</v>
+        <v>0.142389447369017</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2013032468266331</v>
+        <v>0.203709935530754</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -906,19 +906,19 @@
         <v>45677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34613</v>
+        <v>32519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60999</v>
+        <v>59566</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06698414588683115</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05075833899362021</v>
+        <v>0.0476876244328804</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08945330895870379</v>
+        <v>0.08735189131812887</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>157</v>
@@ -927,19 +927,19 @@
         <v>161347</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138610</v>
+        <v>139388</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>185855</v>
+        <v>187251</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1188298978708418</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1020842934323362</v>
+        <v>0.1026574012425446</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1368796729840058</v>
+        <v>0.1379077387646552</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>273626</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249822</v>
+        <v>247733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>298837</v>
+        <v>299746</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4048416018379327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3696219072026294</v>
+        <v>0.3665312619039261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4421417529397857</v>
+        <v>0.443486594945243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>281</v>
@@ -977,19 +977,19 @@
         <v>272453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248749</v>
+        <v>248245</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301106</v>
+        <v>297806</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3995420188442416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3647816608447598</v>
+        <v>0.3640427085877263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4415605416589921</v>
+        <v>0.4367215295873371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>553</v>
@@ -998,19 +998,19 @@
         <v>546079</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>516115</v>
+        <v>510385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>583049</v>
+        <v>579548</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4021800470955277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3801115434060035</v>
+        <v>0.3758916169552524</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4294079376890134</v>
+        <v>0.4268293090854617</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>131941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111234</v>
+        <v>113290</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>152385</v>
+        <v>154518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1952123570194476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1645760150872981</v>
+        <v>0.1676173241880803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2254602075488134</v>
+        <v>0.2286153149700109</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>220</v>
@@ -1048,19 +1048,19 @@
         <v>219696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195292</v>
+        <v>195738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243880</v>
+        <v>244069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3221765066635324</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2863889612663933</v>
+        <v>0.2870431245606375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3576408968828023</v>
+        <v>0.3579179008291851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>350</v>
@@ -1069,19 +1069,19 @@
         <v>351637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>320083</v>
+        <v>318162</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>383218</v>
+        <v>383153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2589762484431506</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2357365757854699</v>
+        <v>0.2343218447129517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2822351823024052</v>
+        <v>0.2821867325069647</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>74249</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58128</v>
+        <v>58150</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91969</v>
+        <v>93268</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1098540966524613</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08600288804442996</v>
+        <v>0.08603531389949357</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1360724516150948</v>
+        <v>0.1379940320399804</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>114</v>
@@ -1119,19 +1119,19 @@
         <v>114167</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95684</v>
+        <v>95579</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>135468</v>
+        <v>134746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.167421372181297</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1403171778244143</v>
+        <v>0.1401624090371363</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1986593978888938</v>
+        <v>0.1975998047511227</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>186</v>
@@ -1140,19 +1140,19 @@
         <v>188416</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>165353</v>
+        <v>161698</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>215224</v>
+        <v>213356</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1387655139042531</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1217805870804239</v>
+        <v>0.1190884632871017</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1585093534578212</v>
+        <v>0.1571337652381702</v>
       </c>
     </row>
     <row r="10">
@@ -1244,19 +1244,19 @@
         <v>38784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27814</v>
+        <v>27578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53360</v>
+        <v>53258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0410005621155732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02940356327668561</v>
+        <v>0.02915408644394646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05640905138380142</v>
+        <v>0.05630162450746749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1265,19 +1265,19 @@
         <v>16833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9764</v>
+        <v>9965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27830</v>
+        <v>28196</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01766636884851426</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01024751837244398</v>
+        <v>0.01045821813008334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02920748104584622</v>
+        <v>0.02959175081501306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1286,19 +1286,19 @@
         <v>55617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41882</v>
+        <v>41821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73967</v>
+        <v>72719</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02929102747764883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02205712208803638</v>
+        <v>0.02202488424874968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03895462928233932</v>
+        <v>0.03829764235129459</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>58192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44753</v>
+        <v>44612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75171</v>
+        <v>74043</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06151783889266594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04731100619735291</v>
+        <v>0.04716186991411898</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0794669602126632</v>
+        <v>0.07827456565764138</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1336,19 +1336,19 @@
         <v>25872</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16459</v>
+        <v>17106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37832</v>
+        <v>37351</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02715250572761117</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01727368866459061</v>
+        <v>0.01795231746545451</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03970459845246516</v>
+        <v>0.03919971653237506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>76</v>
@@ -1357,19 +1357,19 @@
         <v>84064</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66439</v>
+        <v>66062</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104541</v>
+        <v>104479</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04427267192098006</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03499033557364565</v>
+        <v>0.03479146896022343</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05505668919286545</v>
+        <v>0.05502421058327161</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>150301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129397</v>
+        <v>129064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177356</v>
+        <v>175482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1588904043145574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1367921379310423</v>
+        <v>0.1364397299655869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1874922061994272</v>
+        <v>0.1855110146032565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1407,19 +1407,19 @@
         <v>54769</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41694</v>
+        <v>41280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70811</v>
+        <v>70086</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05747927899200828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04375710324227846</v>
+        <v>0.04332261744693622</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07431468303147257</v>
+        <v>0.07355463156606808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>188</v>
@@ -1428,19 +1428,19 @@
         <v>205070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>178247</v>
+        <v>179849</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232897</v>
+        <v>232943</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1080004047741984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09387415766399466</v>
+        <v>0.09471773700221534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1226554587837894</v>
+        <v>0.1226799603608207</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>316336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287687</v>
+        <v>287964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348380</v>
+        <v>350813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3344146072431387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3041282801986914</v>
+        <v>0.304421133361959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3682901619537289</v>
+        <v>0.3708617288697402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -1478,19 +1478,19 @@
         <v>336195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306163</v>
+        <v>305516</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366287</v>
+        <v>365388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.352832408446108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3213137626242276</v>
+        <v>0.320634584895386</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3844133530625509</v>
+        <v>0.3834700855121481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -1499,19 +1499,19 @@
         <v>652531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>610444</v>
+        <v>608029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>696444</v>
+        <v>695685</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3436570043842059</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3214917553417823</v>
+        <v>0.3202194534539728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3667838845415451</v>
+        <v>0.3663837903118419</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>225371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>199318</v>
+        <v>197734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>253637</v>
+        <v>252773</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2382506529799687</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2107084246789838</v>
+        <v>0.2090339765142389</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2681321096726622</v>
+        <v>0.2672184102191797</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>279</v>
@@ -1549,19 +1549,19 @@
         <v>297521</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>268606</v>
+        <v>267057</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>326574</v>
+        <v>328361</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3122438411014017</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2818988669798372</v>
+        <v>0.2802728962303192</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3427347961930037</v>
+        <v>0.3446101711747682</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>491</v>
@@ -1570,19 +1570,19 @@
         <v>522891</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>484543</v>
+        <v>483988</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>563592</v>
+        <v>562390</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2753818187915382</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2551853318936785</v>
+        <v>0.2548934352577411</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2968171017585122</v>
+        <v>0.2961837003217417</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>156956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133861</v>
+        <v>133822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182224</v>
+        <v>180625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.165925934454096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1415105609705765</v>
+        <v>0.1414703816972219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.192637701889731</v>
+        <v>0.190947346905417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>207</v>
@@ -1620,19 +1620,19 @@
         <v>221657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>196538</v>
+        <v>196662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>250971</v>
+        <v>247024</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2326255968843566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2062644165745225</v>
+        <v>0.2063939069312204</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.263390322402599</v>
+        <v>0.2592481136736614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>351</v>
@@ -1641,19 +1641,19 @@
         <v>378613</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>340866</v>
+        <v>343933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>415550</v>
+        <v>414424</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1993970726514287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1795177245887671</v>
+        <v>0.181133255011164</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2188503621869405</v>
+        <v>0.2182570981379312</v>
       </c>
     </row>
     <row r="17">
@@ -1745,19 +1745,19 @@
         <v>12347</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6528</v>
+        <v>6711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21439</v>
+        <v>21883</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01873218070969563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009904310380994267</v>
+        <v>0.01018104841003891</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03252612186726844</v>
+        <v>0.03319963033329112</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1766,19 +1766,19 @@
         <v>4379</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1026</v>
+        <v>981</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10752</v>
+        <v>10412</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006523670200047308</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001528807498006439</v>
+        <v>0.001461972284884279</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01601705310736154</v>
+        <v>0.01550998634714097</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -1787,19 +1787,19 @@
         <v>16727</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9363</v>
+        <v>9196</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27861</v>
+        <v>28091</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01257212886836113</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007037612432436414</v>
+        <v>0.006912320177346688</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02094139303513818</v>
+        <v>0.02111409282214835</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>84139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68825</v>
+        <v>66321</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103128</v>
+        <v>101137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1276489874975104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1044153131314874</v>
+        <v>0.100617524915109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1564576856417319</v>
+        <v>0.1534377518726124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1837,19 +1837,19 @@
         <v>43368</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32454</v>
+        <v>32797</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57075</v>
+        <v>57559</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06460290641682115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04834413322925415</v>
+        <v>0.04885572954677844</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08502066114697346</v>
+        <v>0.08574270475702075</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -1858,19 +1858,19 @@
         <v>127507</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106524</v>
+        <v>105597</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149801</v>
+        <v>150498</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09583780729308666</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08006649487668623</v>
+        <v>0.07936937277046502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1125942022324653</v>
+        <v>0.113118140898537</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>114023</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95734</v>
+        <v>93670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134473</v>
+        <v>133266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1729876730973285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1452408593722331</v>
+        <v>0.1421091871315177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2040122097293139</v>
+        <v>0.2021816596467976</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -1908,19 +1908,19 @@
         <v>57215</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43848</v>
+        <v>43765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73635</v>
+        <v>73818</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0852292785369398</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06531759122979874</v>
+        <v>0.06519466327711204</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1096896231322056</v>
+        <v>0.1099619980356829</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -1929,19 +1929,19 @@
         <v>171238</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147072</v>
+        <v>146882</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199895</v>
+        <v>196390</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1287073934041545</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1105432688071995</v>
+        <v>0.1104004266256525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1502463932036705</v>
+        <v>0.1476117951176866</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>218879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>194966</v>
+        <v>194291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>246517</v>
+        <v>246691</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3320665434196375</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.29578744287523</v>
+        <v>0.2947634838019115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3739961175664512</v>
+        <v>0.3742611008696507</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>220</v>
@@ -1979,19 +1979,19 @@
         <v>216338</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>194046</v>
+        <v>191742</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>240080</v>
+        <v>242124</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3222658908643671</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.289058688288627</v>
+        <v>0.2856257540931936</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.357632929603075</v>
+        <v>0.3606769919053173</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>425</v>
@@ -2000,19 +2000,19 @@
         <v>435217</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>401659</v>
+        <v>400461</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>474379</v>
+        <v>468015</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3271214251948007</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3018983855299383</v>
+        <v>0.300997726776128</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3565562289371459</v>
+        <v>0.3517732053845059</v>
       </c>
     </row>
     <row r="22">
@@ -2029,19 +2029,19 @@
         <v>114567</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94051</v>
+        <v>94428</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135663</v>
+        <v>135840</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1738116459848384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1426864380340278</v>
+        <v>0.1432582179928392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.205817608931691</v>
+        <v>0.2060855517320009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -2050,19 +2050,19 @@
         <v>176353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155624</v>
+        <v>155036</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199560</v>
+        <v>200898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2627023257785384</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2318227100913884</v>
+        <v>0.2309474707242919</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2972717855567794</v>
+        <v>0.2992652424546896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>290</v>
@@ -2071,19 +2071,19 @@
         <v>290920</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>259872</v>
+        <v>262843</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>321063</v>
+        <v>321598</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2186632431807383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1953267736161184</v>
+        <v>0.1975603001642962</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2413196572008278</v>
+        <v>0.2417217243515075</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>115187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94504</v>
+        <v>95686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>135403</v>
+        <v>137146</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1747529692909896</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1433745872470991</v>
+        <v>0.1451675705930898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2054230651537503</v>
+        <v>0.2080677152535372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>174</v>
@@ -2121,19 +2121,19 @@
         <v>173650</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151551</v>
+        <v>152072</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>195126</v>
+        <v>198612</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2586759282032863</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2257564283223909</v>
+        <v>0.2265328684929495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2906672157571153</v>
+        <v>0.2958603638757732</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>283</v>
@@ -2142,19 +2142,19 @@
         <v>288837</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>261097</v>
+        <v>259311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>320762</v>
+        <v>322346</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2170980020588587</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1962473858206996</v>
+        <v>0.1949056738323906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2410935285783056</v>
+        <v>0.2422842472405967</v>
       </c>
     </row>
     <row r="24">
@@ -2246,19 +2246,19 @@
         <v>20529</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12816</v>
+        <v>12930</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30616</v>
+        <v>31410</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02286651114138582</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01427531637541081</v>
+        <v>0.01440167078521169</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03410217273142278</v>
+        <v>0.0349861340799733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2267,19 +2267,19 @@
         <v>10192</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4655</v>
+        <v>4884</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19725</v>
+        <v>19810</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01011971234324983</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004622528261772737</v>
+        <v>0.004849284560720856</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01958566848651176</v>
+        <v>0.01967023182464578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2288,19 +2288,19 @@
         <v>30721</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21778</v>
+        <v>20759</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42852</v>
+        <v>44227</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01612732489895341</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.011432650037017</v>
+        <v>0.01089773465996573</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02249590746143638</v>
+        <v>0.0232175596702222</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>47739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35554</v>
+        <v>35430</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>60517</v>
+        <v>61730</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05317489157877896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0396018623068562</v>
+        <v>0.03946395736895645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06740708023959212</v>
+        <v>0.06875916099254115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -2338,19 +2338,19 @@
         <v>36758</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25573</v>
+        <v>26047</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49472</v>
+        <v>50198</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03649876273769157</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0253926537405591</v>
+        <v>0.02586327117778438</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04912254907791561</v>
+        <v>0.04984375777912714</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>86</v>
@@ -2359,19 +2359,19 @@
         <v>84497</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>68559</v>
+        <v>68094</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>102517</v>
+        <v>104932</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04435828280957796</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03599114198828712</v>
+        <v>0.03574711973626118</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05381776402820344</v>
+        <v>0.05508578324915899</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>106709</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>90160</v>
+        <v>89384</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>126174</v>
+        <v>126357</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1188592821859085</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.100425303071113</v>
+        <v>0.09956110600208029</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1405400068506999</v>
+        <v>0.1407443359529861</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>64</v>
@@ -2409,19 +2409,19 @@
         <v>68852</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>54541</v>
+        <v>52688</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>86910</v>
+        <v>87407</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06836601668433437</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05415621884238102</v>
+        <v>0.05231583146176962</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08629694720335901</v>
+        <v>0.08678986466218544</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>175</v>
@@ -2430,19 +2430,19 @@
         <v>175561</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>152869</v>
+        <v>150902</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>200721</v>
+        <v>201826</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0921636760503934</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08025121048130361</v>
+        <v>0.07921870240938753</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1053716693259104</v>
+        <v>0.1059516982460243</v>
       </c>
     </row>
     <row r="28">
@@ -2459,19 +2459,19 @@
         <v>312449</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>283697</v>
+        <v>286028</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>338902</v>
+        <v>340829</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3480251054076417</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3159988177789872</v>
+        <v>0.3185953278222686</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3774901262788696</v>
+        <v>0.3796362212833018</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>302</v>
@@ -2480,19 +2480,19 @@
         <v>310664</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>283190</v>
+        <v>281474</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>340238</v>
+        <v>342093</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3084720654394882</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2811920353603027</v>
+        <v>0.2794886346906187</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3378381486788687</v>
+        <v>0.3396799728298661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>632</v>
@@ -2501,19 +2501,19 @@
         <v>623113</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>581038</v>
+        <v>581015</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>662702</v>
+        <v>664601</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3271135567889612</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3050255641040616</v>
+        <v>0.3050132862676247</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3478963059904081</v>
+        <v>0.3488934221482151</v>
       </c>
     </row>
     <row r="29">
@@ -2530,19 +2530,19 @@
         <v>237959</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>213139</v>
+        <v>213541</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>264714</v>
+        <v>266990</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2650535280854668</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2374069400621832</v>
+        <v>0.2378549302417674</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2948542454541948</v>
+        <v>0.2973899890082023</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>294</v>
@@ -2551,19 +2551,19 @@
         <v>304473</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>276559</v>
+        <v>277551</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>335064</v>
+        <v>336715</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3023249170335117</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2746079952299056</v>
+        <v>0.2755928294043494</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3326999507758682</v>
+        <v>0.3343395950232168</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>546</v>
@@ -2572,19 +2572,19 @@
         <v>542432</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>504938</v>
+        <v>505216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>581254</v>
+        <v>584937</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2847587760942251</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2650753778079775</v>
+        <v>0.2652215207626656</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3051389363765911</v>
+        <v>0.3070721767093482</v>
       </c>
     </row>
     <row r="30">
@@ -2601,19 +2601,19 @@
         <v>172392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>150003</v>
+        <v>149784</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>196798</v>
+        <v>193901</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1920206816008182</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1670824948284416</v>
+        <v>0.1668384325284689</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2192055991293397</v>
+        <v>0.2159791651377294</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>263</v>
@@ -2622,19 +2622,19 @@
         <v>276167</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>249890</v>
+        <v>250254</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>305165</v>
+        <v>305361</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2742185257617244</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.248127142901675</v>
+        <v>0.248488357958258</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3030117705650604</v>
+        <v>0.3032071814930561</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>443</v>
@@ -2643,19 +2643,19 @@
         <v>448559</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>413511</v>
+        <v>411366</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>485077</v>
+        <v>487051</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.235478383357889</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2170795215984825</v>
+        <v>0.215953567415783</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2546489824266601</v>
+        <v>0.2556852936326048</v>
       </c>
     </row>
     <row r="31">
@@ -2747,19 +2747,19 @@
         <v>91665</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>73271</v>
+        <v>73843</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>111844</v>
+        <v>114134</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02883690680247086</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02305029014810748</v>
+        <v>0.02323023412002319</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03518506381289388</v>
+        <v>0.03590520869080869</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -2768,19 +2768,19 @@
         <v>34975</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24449</v>
+        <v>24649</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01055647295806115</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007379312753223751</v>
+        <v>0.00743983195529471</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01518183873330294</v>
+        <v>0.01503084630053488</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -2789,19 +2789,19 @@
         <v>126641</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>101346</v>
+        <v>105853</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>150630</v>
+        <v>151110</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01950743210592186</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01561116729654193</v>
+        <v>0.01630538350872102</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02320270165386845</v>
+        <v>0.0232767099640713</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>250465</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>220926</v>
+        <v>220624</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>283340</v>
+        <v>282525</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07879352978192487</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0695008838495887</v>
+        <v>0.0694058497345454</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08913584771404193</v>
+        <v>0.08887948939394677</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>127</v>
@@ -2839,19 +2839,19 @@
         <v>132347</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>108907</v>
+        <v>111710</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>155919</v>
+        <v>156743</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03994573931180028</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0328708255079901</v>
+        <v>0.03371687457870512</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04706045310778543</v>
+        <v>0.04730921951759453</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>371</v>
@@ -2860,19 +2860,19 @@
         <v>382812</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>346103</v>
+        <v>346775</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>421485</v>
+        <v>423629</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05896744243123007</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05331292486025496</v>
+        <v>0.05341650686259035</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06492465956390193</v>
+        <v>0.06525479440462763</v>
       </c>
     </row>
     <row r="34">
@@ -2889,19 +2889,19 @@
         <v>486703</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>447591</v>
+        <v>443215</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>531604</v>
+        <v>526578</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1531117161423594</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1408074767142548</v>
+        <v>0.1394308506428434</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1672369967528128</v>
+        <v>0.1656559213455006</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>214</v>
@@ -2910,19 +2910,19 @@
         <v>226513</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>197430</v>
+        <v>197580</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>257116</v>
+        <v>256933</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06836742265462374</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05958946099348904</v>
+        <v>0.05963478009016471</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07760434745455409</v>
+        <v>0.07754899595697953</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>688</v>
@@ -2931,19 +2931,19 @@
         <v>713216</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>664959</v>
+        <v>668273</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>768701</v>
+        <v>765130</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1098622096755023</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1024288405265982</v>
+        <v>0.1029392778219974</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1184089587249664</v>
+        <v>0.1178588600307545</v>
       </c>
     </row>
     <row r="35">
@@ -2960,19 +2960,19 @@
         <v>1121291</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1060059</v>
+        <v>1071021</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1173477</v>
+        <v>1175917</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3527463815720481</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3334835144439628</v>
+        <v>0.3369320179952505</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3691634838536206</v>
+        <v>0.3699310361235627</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1126</v>
@@ -2981,19 +2981,19 @@
         <v>1135650</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1083556</v>
+        <v>1085778</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1196726</v>
+        <v>1195514</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3427686129631978</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3270452463285829</v>
+        <v>0.3277160179080955</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3612027982462587</v>
+        <v>0.3608371123092303</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2229</v>
@@ -3002,19 +3002,19 @@
         <v>2256941</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2187887</v>
+        <v>2182919</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2338008</v>
+        <v>2335032</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3476541971875535</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3370172918712753</v>
+        <v>0.3362519387192376</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3601415253661522</v>
+        <v>0.3596830877988181</v>
       </c>
     </row>
     <row r="36">
@@ -3031,19 +3031,19 @@
         <v>709838</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>666658</v>
+        <v>660229</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>762612</v>
+        <v>758165</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2233075313372596</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2097234720825674</v>
+        <v>0.207700987041058</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2399097533851617</v>
+        <v>0.2385106513282128</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>976</v>
@@ -3052,19 +3052,19 @@
         <v>998043</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>949135</v>
+        <v>942570</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1051734</v>
+        <v>1044829</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3012351689737817</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2864734784798549</v>
+        <v>0.2844920656680966</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3174406929085281</v>
+        <v>0.3153563959844653</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1677</v>
@@ -3073,19 +3073,19 @@
         <v>1707881</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1639300</v>
+        <v>1639998</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1785571</v>
+        <v>1781636</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2630781368753826</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2525140923982321</v>
+        <v>0.2526216795382283</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2750453931254725</v>
+        <v>0.2744391858029844</v>
       </c>
     </row>
     <row r="37">
@@ -3102,19 +3102,19 @@
         <v>518784</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>475976</v>
+        <v>476942</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>563080</v>
+        <v>560799</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1632039343639372</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1497369120206095</v>
+        <v>0.1500410520343926</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1771389707101527</v>
+        <v>0.1764214907380621</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>758</v>
@@ -3123,19 +3123,19 @@
         <v>785640</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>736370</v>
+        <v>738717</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>839550</v>
+        <v>833999</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2371265831385353</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2222556655587473</v>
+        <v>0.2229640675271446</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2533978498266604</v>
+        <v>0.2517224590320828</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1263</v>
@@ -3144,19 +3144,19 @@
         <v>1304424</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1242967</v>
+        <v>1242409</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1369697</v>
+        <v>1373495</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2009305817244097</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1914638269791331</v>
+        <v>0.1913779566534789</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2109851123090258</v>
+        <v>0.2115701587759911</v>
       </c>
     </row>
     <row r="38">
@@ -3488,19 +3488,19 @@
         <v>59090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45109</v>
+        <v>46047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72503</v>
+        <v>74968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08501408374623816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06489915231256363</v>
+        <v>0.06624861888750552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1043117373506543</v>
+        <v>0.1078579581704019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -3509,19 +3509,19 @@
         <v>39392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28385</v>
+        <v>28382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52452</v>
+        <v>53049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05811181332782695</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04187401367413311</v>
+        <v>0.04186933608396221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07737786581698775</v>
+        <v>0.07825849251375749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -3530,19 +3530,19 @@
         <v>98482</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79521</v>
+        <v>82172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119230</v>
+        <v>120465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07173144835362415</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05792094243284444</v>
+        <v>0.05985177438616879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08684355902613725</v>
+        <v>0.08774374410551979</v>
       </c>
     </row>
     <row r="5">
@@ -3559,19 +3559,19 @@
         <v>85272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70071</v>
+        <v>70391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105923</v>
+        <v>106611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.122682106965243</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.100813388687933</v>
+        <v>0.1012727278910727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1523941852986974</v>
+        <v>0.1533829504599315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -3580,19 +3580,19 @@
         <v>54835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41827</v>
+        <v>40981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71822</v>
+        <v>69521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08089336422407141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06170393945377377</v>
+        <v>0.06045596257550585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1059528841973276</v>
+        <v>0.1025586710561056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -3601,19 +3601,19 @@
         <v>140106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118728</v>
+        <v>118722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165739</v>
+        <v>165880</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1020494754172806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08647829583932079</v>
+        <v>0.08647400413991839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1207197652775392</v>
+        <v>0.120822304530462</v>
       </c>
     </row>
     <row r="6">
@@ -3630,19 +3630,19 @@
         <v>102231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>85904</v>
+        <v>81989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124030</v>
+        <v>121266</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1470813991330684</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1235922487845718</v>
+        <v>0.1179598609696256</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1784449474015809</v>
+        <v>0.1744679561118676</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -3651,19 +3651,19 @@
         <v>66048</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50606</v>
+        <v>51240</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84330</v>
+        <v>85978</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09743488202344713</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07465549347505279</v>
+        <v>0.07558994132782802</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1244058898361736</v>
+        <v>0.1268374285170532</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -3672,19 +3672,19 @@
         <v>168278</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142586</v>
+        <v>143742</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>193092</v>
+        <v>196015</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1225690968245996</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1038554545267925</v>
+        <v>0.1046978862879539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1406428921144953</v>
+        <v>0.1427718782605763</v>
       </c>
     </row>
     <row r="7">
@@ -3701,19 +3701,19 @@
         <v>188442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>165680</v>
+        <v>165854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>213767</v>
+        <v>214988</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2711156603678442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2383675707162338</v>
+        <v>0.2386173587209595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3075513176747089</v>
+        <v>0.3093076675716613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -3722,19 +3722,19 @@
         <v>163631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141706</v>
+        <v>141340</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186540</v>
+        <v>185590</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2413918245554086</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2090484486500214</v>
+        <v>0.2085085156054591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2751883398135804</v>
+        <v>0.2737863738405865</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>333</v>
@@ -3743,19 +3743,19 @@
         <v>352072</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320039</v>
+        <v>318565</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>386920</v>
+        <v>387819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2564399148851764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2331076449210649</v>
+        <v>0.2320343259479828</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2818221471909231</v>
+        <v>0.2824768289655454</v>
       </c>
     </row>
     <row r="8">
@@ -3772,19 +3772,19 @@
         <v>150947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>129365</v>
+        <v>130886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173080</v>
+        <v>176542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2171707269698017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1861210306209411</v>
+        <v>0.1883081827090298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2490140941730324</v>
+        <v>0.2539942638309878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -3793,19 +3793,19 @@
         <v>214235</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>192286</v>
+        <v>190684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243322</v>
+        <v>240135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3160452990272651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2836648478217395</v>
+        <v>0.2813016240189693</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3589549539349837</v>
+        <v>0.3542536437980188</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>343</v>
@@ -3814,19 +3814,19 @@
         <v>365182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>330467</v>
+        <v>330450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>395572</v>
+        <v>395746</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.26598872150387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2407029458283188</v>
+        <v>0.2406906009525249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2881237066785813</v>
+        <v>0.2882509459089961</v>
       </c>
     </row>
     <row r="9">
@@ -3843,19 +3843,19 @@
         <v>109080</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89966</v>
+        <v>90396</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>130134</v>
+        <v>128839</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1569360228178046</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1294360083264236</v>
+        <v>0.1300548784757271</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1872267758116616</v>
+        <v>0.1853636770361227</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -3864,19 +3864,19 @@
         <v>139723</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>118146</v>
+        <v>119547</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>161544</v>
+        <v>162900</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2061228168419808</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.174292401677744</v>
+        <v>0.1763583462372481</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2383134265327314</v>
+        <v>0.2403147827612422</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>233</v>
@@ -3885,19 +3885,19 @@
         <v>248803</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>223221</v>
+        <v>219762</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>278992</v>
+        <v>281025</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1812213430154492</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1625879523356107</v>
+        <v>0.1600684899743785</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2032102692940537</v>
+        <v>0.2046910421832258</v>
       </c>
     </row>
     <row r="10">
@@ -3989,19 +3989,19 @@
         <v>49874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36575</v>
+        <v>37055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65275</v>
+        <v>67761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04968434216090949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03643557128835618</v>
+        <v>0.03691408630316943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06502694727371848</v>
+        <v>0.06750338809252601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -4010,19 +4010,19 @@
         <v>28760</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19082</v>
+        <v>19670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40810</v>
+        <v>39220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02888634070275205</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01916537575841439</v>
+        <v>0.01975626952930865</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04098884288734518</v>
+        <v>0.03939224826894297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>71</v>
@@ -4031,19 +4031,19 @@
         <v>78634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62087</v>
+        <v>60721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99789</v>
+        <v>97609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03932792884750273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03105200805054266</v>
+        <v>0.03036900757608771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04990832332861101</v>
+        <v>0.04881802671231612</v>
       </c>
     </row>
     <row r="12">
@@ -4060,19 +4060,19 @@
         <v>124395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102054</v>
+        <v>103687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>148889</v>
+        <v>150958</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1239213351309317</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1016655331944264</v>
+        <v>0.1032921523435022</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1483223390652775</v>
+        <v>0.1503829657634284</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -4081,19 +4081,19 @@
         <v>78648</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60733</v>
+        <v>61979</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98720</v>
+        <v>98118</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07899284006708819</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06099961547224875</v>
+        <v>0.06225044976223721</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09915284853479313</v>
+        <v>0.09854844879512493</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -4102,19 +4102,19 @@
         <v>203043</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>176927</v>
+        <v>176264</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>234368</v>
+        <v>232926</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1015490862700673</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08848760239414639</v>
+        <v>0.08815581944844367</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1172158415350673</v>
+        <v>0.1164948673249339</v>
       </c>
     </row>
     <row r="13">
@@ -4131,19 +4131,19 @@
         <v>173784</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148697</v>
+        <v>150432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200847</v>
+        <v>199232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1731226315369073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1481311597490881</v>
+        <v>0.1498591650391353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2000823116372348</v>
+        <v>0.1984734051856555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -4152,19 +4152,19 @@
         <v>105420</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85914</v>
+        <v>86744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126934</v>
+        <v>127495</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1058825083633041</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0862905824794616</v>
+        <v>0.08712457061762144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1274909393284162</v>
+        <v>0.1280545374563548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>248</v>
@@ -4173,19 +4173,19 @@
         <v>279205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248363</v>
+        <v>247051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315412</v>
+        <v>312564</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1396402554426848</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1242152140498586</v>
+        <v>0.1235593049888833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1577490498215287</v>
+        <v>0.1563245610127823</v>
       </c>
     </row>
     <row r="14">
@@ -4202,19 +4202,19 @@
         <v>255657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229663</v>
+        <v>226222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286597</v>
+        <v>284789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.254684019151117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.228788221606875</v>
+        <v>0.2253607071342252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2855057805694557</v>
+        <v>0.2837051403038439</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -4223,19 +4223,19 @@
         <v>213422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187253</v>
+        <v>188457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242818</v>
+        <v>241864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2143580055340095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1880739566147626</v>
+        <v>0.189283406441337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2438828768397056</v>
+        <v>0.2429248409016752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>432</v>
@@ -4244,19 +4244,19 @@
         <v>469080</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>429023</v>
+        <v>429786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>506180</v>
+        <v>505398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.234603586656627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2145699209918767</v>
+        <v>0.2149513945654726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.253158619864709</v>
+        <v>0.2527679899543917</v>
       </c>
     </row>
     <row r="15">
@@ -4273,19 +4273,19 @@
         <v>192259</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>168736</v>
+        <v>168782</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>218783</v>
+        <v>216457</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.191527215330335</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1680937383767998</v>
+        <v>0.1681392122745357</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2179496686794485</v>
+        <v>0.2156331964576653</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>222</v>
@@ -4294,19 +4294,19 @@
         <v>242619</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>215525</v>
+        <v>216481</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>270084</v>
+        <v>269812</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2436824184742644</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2164700792799532</v>
+        <v>0.2174306219524166</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2712685902382645</v>
+        <v>0.270995058141809</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>402</v>
@@ -4315,19 +4315,19 @@
         <v>434878</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>399606</v>
+        <v>395977</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>474355</v>
+        <v>475360</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2174980203276281</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1998576072301392</v>
+        <v>0.1980422140703926</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2372419479046808</v>
+        <v>0.2377444462392664</v>
       </c>
     </row>
     <row r="16">
@@ -4344,19 +4344,19 @@
         <v>207852</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185055</v>
+        <v>180115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>236446</v>
+        <v>234623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2070604566897995</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1843502619989759</v>
+        <v>0.1794291615873282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2355455332044181</v>
+        <v>0.2337295981338103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -4365,19 +4365,19 @@
         <v>326765</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>296386</v>
+        <v>296342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>360193</v>
+        <v>356125</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3281978868585818</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2976855172599921</v>
+        <v>0.2976415158484215</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3617727270037551</v>
+        <v>0.3576869713615616</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>495</v>
@@ -4386,19 +4386,19 @@
         <v>534617</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>495975</v>
+        <v>492916</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>576743</v>
+        <v>577712</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.26738112245549</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.248054879021519</v>
+        <v>0.2465249068415277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2884502050364505</v>
+        <v>0.2889344214994876</v>
       </c>
     </row>
     <row r="17">
@@ -4490,19 +4490,19 @@
         <v>28247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19187</v>
+        <v>19325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40503</v>
+        <v>40619</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03784978975195578</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02570914406992941</v>
+        <v>0.02589414683586909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05427086168037682</v>
+        <v>0.05442723528101314</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -4511,19 +4511,19 @@
         <v>6634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2375</v>
+        <v>2309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13436</v>
+        <v>13596</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.00868794495152646</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00310969084447123</v>
+        <v>0.003024205090672134</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01759435923230237</v>
+        <v>0.01780404907843704</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -4532,19 +4532,19 @@
         <v>34882</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24848</v>
+        <v>24763</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49033</v>
+        <v>48089</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02310151969778889</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01645634327388999</v>
+        <v>0.01639973783227361</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03247333638593427</v>
+        <v>0.03184838939787768</v>
       </c>
     </row>
     <row r="19">
@@ -4561,19 +4561,19 @@
         <v>71965</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57359</v>
+        <v>55736</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89467</v>
+        <v>89929</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09642872519565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07685762295433965</v>
+        <v>0.07468281201211123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1198805126709644</v>
+        <v>0.1204988606797922</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -4582,19 +4582,19 @@
         <v>53438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40149</v>
+        <v>40761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68821</v>
+        <v>69740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06997800203214258</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0525759772383958</v>
+        <v>0.05337719224365599</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09012267156500529</v>
+        <v>0.09132653181489343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -4603,19 +4603,19 @@
         <v>125403</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105090</v>
+        <v>104283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151129</v>
+        <v>148425</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0830515739552843</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06959856791473669</v>
+        <v>0.06906420218815203</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1000895485282841</v>
+        <v>0.09829881851729752</v>
       </c>
     </row>
     <row r="20">
@@ -4632,19 +4632,19 @@
         <v>118229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>97170</v>
+        <v>95631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>142094</v>
+        <v>142717</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1584192958033788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1302021615417188</v>
+        <v>0.1281400293282568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1903965012632838</v>
+        <v>0.1912322815433704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -4653,19 +4653,19 @@
         <v>66880</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51935</v>
+        <v>53066</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>83528</v>
+        <v>85926</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08758151228351267</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06800982964699839</v>
+        <v>0.06949109219487778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1093827967338008</v>
+        <v>0.1125228611316261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -4674,19 +4674,19 @@
         <v>185109</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>159567</v>
+        <v>159983</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213515</v>
+        <v>213006</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1225938955744393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1056776690666892</v>
+        <v>0.1059536320337033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1414061839063544</v>
+        <v>0.1410695849658503</v>
       </c>
     </row>
     <row r="21">
@@ -4703,19 +4703,19 @@
         <v>182053</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>155673</v>
+        <v>157298</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>206049</v>
+        <v>208671</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2439394242599073</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2085919599823068</v>
+        <v>0.2107690054212066</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2760921280636254</v>
+        <v>0.2796054104644524</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>152</v>
@@ -4724,19 +4724,19 @@
         <v>163301</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>138698</v>
+        <v>140535</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>186691</v>
+        <v>187379</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2138477814418222</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1816286870751331</v>
+        <v>0.1840349974928985</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2444768500701307</v>
+        <v>0.2453781628972092</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>317</v>
@@ -4745,19 +4745,19 @@
         <v>345354</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>309361</v>
+        <v>309415</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>379438</v>
+        <v>377821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2287209194742252</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.204883332713917</v>
+        <v>0.2049192208166328</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2512940627894237</v>
+        <v>0.2502225379786459</v>
       </c>
     </row>
     <row r="22">
@@ -4774,19 +4774,19 @@
         <v>143175</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>120336</v>
+        <v>123191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167562</v>
+        <v>167967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1918460594993828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1612431189649119</v>
+        <v>0.1650681169074887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2245228757638699</v>
+        <v>0.2250655308034392</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>182</v>
@@ -4795,19 +4795,19 @@
         <v>200482</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175103</v>
+        <v>176327</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224711</v>
+        <v>226965</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2625365259344357</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2293024681977205</v>
+        <v>0.2309046768504518</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2942650637696654</v>
+        <v>0.2972172000367064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>311</v>
@@ -4816,19 +4816,19 @@
         <v>343657</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>311041</v>
+        <v>313829</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>381116</v>
+        <v>378188</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2275969557946622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2059958361050944</v>
+        <v>0.2078420749138755</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2524051574507389</v>
+        <v>0.2504656620983673</v>
       </c>
     </row>
     <row r="23">
@@ -4845,19 +4845,19 @@
         <v>202634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>177711</v>
+        <v>177566</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228892</v>
+        <v>229774</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2715167054897253</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2381220368671976</v>
+        <v>0.2379275373877652</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3067009904546377</v>
+        <v>0.3078831988635146</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>243</v>
@@ -4866,19 +4866,19 @@
         <v>272899</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>245627</v>
+        <v>243922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299095</v>
+        <v>301664</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3573682333565604</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3216547759910492</v>
+        <v>0.3194230764788748</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3916726533921681</v>
+        <v>0.3950368998358474</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>426</v>
@@ -4887,19 +4887,19 @@
         <v>475533</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>438503</v>
+        <v>441242</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>510932</v>
+        <v>517964</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3149351355036001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2904114004245542</v>
+        <v>0.2922252055023738</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3383794027350122</v>
+        <v>0.343036774984695</v>
       </c>
     </row>
     <row r="24">
@@ -4991,19 +4991,19 @@
         <v>36070</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24915</v>
+        <v>24421</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50904</v>
+        <v>51501</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03865313513138161</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02669972354230483</v>
+        <v>0.02617029820577895</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05454953349609146</v>
+        <v>0.05518921286233829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -5012,19 +5012,19 @@
         <v>30208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21110</v>
+        <v>20540</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43036</v>
+        <v>42169</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02926580003535001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02045131469522015</v>
+        <v>0.01989973164019088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04169340864585949</v>
+        <v>0.04085404667348319</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -5033,19 +5033,19 @@
         <v>66278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50851</v>
+        <v>51228</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83774</v>
+        <v>85089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03372296847418477</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02587370802674279</v>
+        <v>0.02606556163325612</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04262527294132774</v>
+        <v>0.04329428683777038</v>
       </c>
     </row>
     <row r="26">
@@ -5062,19 +5062,19 @@
         <v>129234</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109533</v>
+        <v>107503</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155543</v>
+        <v>150829</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1384896598576891</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1173778736086278</v>
+        <v>0.1152025737039636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1666829880231943</v>
+        <v>0.1616316888840497</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -5083,19 +5083,19 @@
         <v>96142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77790</v>
+        <v>78350</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>115550</v>
+        <v>115390</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09314376079811626</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07536337131097616</v>
+        <v>0.07590585098816473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1119461021990225</v>
+        <v>0.1117910648260458</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>213</v>
@@ -5104,19 +5104,19 @@
         <v>225376</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>198350</v>
+        <v>200331</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>257145</v>
+        <v>256568</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1146742918861518</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1009232311115571</v>
+        <v>0.1019308077117096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1308388725705876</v>
+        <v>0.1305449836535969</v>
       </c>
     </row>
     <row r="27">
@@ -5133,19 +5133,19 @@
         <v>141641</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>121201</v>
+        <v>120659</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>164488</v>
+        <v>165732</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.151785159635272</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1298817287387973</v>
+        <v>0.1293005599875214</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.176269270858135</v>
+        <v>0.1776020863336266</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>127</v>
@@ -5154,19 +5154,19 @@
         <v>137862</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>117561</v>
+        <v>116738</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>162443</v>
+        <v>162219</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1335621857951768</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1138941495502746</v>
+        <v>0.1130968066298736</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1573764034195368</v>
+        <v>0.1571596593846413</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>266</v>
@@ -5175,19 +5175,19 @@
         <v>279503</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>248329</v>
+        <v>250038</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>312229</v>
+        <v>311472</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1422145736167344</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1263531863214663</v>
+        <v>0.1272224344807832</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1588661262681155</v>
+        <v>0.1584806513105774</v>
       </c>
     </row>
     <row r="28">
@@ -5204,19 +5204,19 @@
         <v>296885</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>268468</v>
+        <v>270242</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>326568</v>
+        <v>329075</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3181479920352435</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2876959345502892</v>
+        <v>0.2895965014458135</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3499574650675842</v>
+        <v>0.3526437820102782</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>274</v>
@@ -5225,19 +5225,19 @@
         <v>285534</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>257042</v>
+        <v>256848</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>312737</v>
+        <v>315137</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2766285027197874</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2490253177836209</v>
+        <v>0.2488364949441895</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3029832322772508</v>
+        <v>0.3053081669445554</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>562</v>
@@ -5246,19 +5246,19 @@
         <v>582419</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>541030</v>
+        <v>541297</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>622141</v>
+        <v>623099</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2963422292971651</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2752827107797768</v>
+        <v>0.2754185058064404</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3165532099156169</v>
+        <v>0.3170407245882122</v>
       </c>
     </row>
     <row r="29">
@@ -5275,19 +5275,19 @@
         <v>205771</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>180696</v>
+        <v>182816</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>234215</v>
+        <v>236232</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2205089348118036</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1936374836507063</v>
+        <v>0.1959096490478167</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2509892367566408</v>
+        <v>0.2531515575591574</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>273</v>
@@ -5296,19 +5296,19 @@
         <v>284834</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>258327</v>
+        <v>258531</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>315553</v>
+        <v>317066</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.275949975908163</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2502699465919558</v>
+        <v>0.2504672111736982</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3057104967512146</v>
+        <v>0.307176612330447</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>473</v>
@@ -5317,19 +5317,19 @@
         <v>490605</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>451936</v>
+        <v>451558</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>530204</v>
+        <v>534986</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2496262049909729</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2299509004834087</v>
+        <v>0.2297586673704664</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2697745263150975</v>
+        <v>0.2722075082473858</v>
       </c>
     </row>
     <row r="30">
@@ -5346,19 +5346,19 @@
         <v>123565</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102300</v>
+        <v>102096</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>144547</v>
+        <v>146020</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1324151185286102</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1096269577209639</v>
+        <v>0.1094080135986339</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1548997487335602</v>
+        <v>0.1564777250808947</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>188</v>
@@ -5367,19 +5367,19 @@
         <v>197613</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>171998</v>
+        <v>170158</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>225551</v>
+        <v>222960</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1914497747434066</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.166633717926012</v>
+        <v>0.1648508754868428</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2185160256401853</v>
+        <v>0.2160063461517568</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>304</v>
@@ -5388,19 +5388,19 @@
         <v>321179</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>288596</v>
+        <v>286690</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>356972</v>
+        <v>355500</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1634197317347911</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1468413259644417</v>
+        <v>0.1458716584687059</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1816320228325473</v>
+        <v>0.1808828807752346</v>
       </c>
     </row>
     <row r="31">
@@ -5492,19 +5492,19 @@
         <v>173281</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>148163</v>
+        <v>146655</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>201452</v>
+        <v>202168</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05129169379365837</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04385656076945187</v>
+        <v>0.04341020862254286</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05963036522308657</v>
+        <v>0.05984221552933319</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>102</v>
@@ -5513,19 +5513,19 @@
         <v>104994</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>86190</v>
+        <v>87194</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>126960</v>
+        <v>126687</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03026365491682864</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02484339936830457</v>
+        <v>0.02513285146305391</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03659496141270323</v>
+        <v>0.0365162158236482</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>263</v>
@@ -5534,19 +5534,19 @@
         <v>278276</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>247428</v>
+        <v>248754</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>314707</v>
+        <v>314529</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0406379957419443</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03613318170416846</v>
+        <v>0.03632683187339177</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04595814182973477</v>
+        <v>0.04593218222980963</v>
       </c>
     </row>
     <row r="33">
@@ -5563,19 +5563,19 @@
         <v>410865</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>369618</v>
+        <v>373964</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>449329</v>
+        <v>452442</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1216170992657632</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1094078909109234</v>
+        <v>0.1106941228121946</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1330022966857063</v>
+        <v>0.133923752326386</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>263</v>
@@ -5584,19 +5584,19 @@
         <v>283063</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>251931</v>
+        <v>250973</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>316473</v>
+        <v>315766</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08159010555283264</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07261660025317</v>
+        <v>0.07234066097908336</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09122028199280154</v>
+        <v>0.09101663570565949</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>645</v>
@@ -5605,19 +5605,19 @@
         <v>693928</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>641782</v>
+        <v>640061</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>748862</v>
+        <v>745366</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1013377233604191</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09372255102679057</v>
+        <v>0.09347120529160791</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1093600561773252</v>
+        <v>0.1088495081728122</v>
       </c>
     </row>
     <row r="34">
@@ -5634,19 +5634,19 @@
         <v>535885</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>491226</v>
+        <v>493522</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>579598</v>
+        <v>582058</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.158623021243642</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1454040093674425</v>
+        <v>0.1460837503742087</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1715623187247473</v>
+        <v>0.1722905142442218</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>341</v>
@@ -5655,19 +5655,19 @@
         <v>376210</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>342035</v>
+        <v>339912</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>420903</v>
+        <v>418433</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1084389749342086</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09858842437181158</v>
+        <v>0.09797645681177834</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1213212473017076</v>
+        <v>0.120609455083023</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>841</v>
@@ -5676,19 +5676,19 @@
         <v>912094</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>857323</v>
+        <v>854646</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>976463</v>
+        <v>973210</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1331976508833536</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1251990856788444</v>
+        <v>0.1248081330729341</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1425976584888468</v>
+        <v>0.1421226091728714</v>
       </c>
     </row>
     <row r="35">
@@ -5705,19 +5705,19 @@
         <v>923037</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>869301</v>
+        <v>872717</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>977591</v>
+        <v>982196</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2732210606596855</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2573150110328186</v>
+        <v>0.2583262451971443</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2893691322332623</v>
+        <v>0.2907320897212889</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>774</v>
@@ -5726,19 +5726,19 @@
         <v>825888</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>775880</v>
+        <v>776881</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>875315</v>
+        <v>877375</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2380545024458869</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2236400339805604</v>
+        <v>0.2239286853099147</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2523012896099155</v>
+        <v>0.2528950178771491</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1644</v>
@@ -5747,19 +5747,19 @@
         <v>1748925</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1676740</v>
+        <v>1678535</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1827505</v>
+        <v>1829470</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2554041879155203</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2448625713842195</v>
+        <v>0.2451246898755164</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2668795799330813</v>
+        <v>0.2671665380638576</v>
       </c>
     </row>
     <row r="36">
@@ -5776,19 +5776,19 @@
         <v>692153</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>647791</v>
+        <v>643781</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>741662</v>
+        <v>742293</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2048788420579528</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1917475241192144</v>
+        <v>0.1905607119248736</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2195335946275666</v>
+        <v>0.2197202739987644</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>878</v>
@@ -5797,19 +5797,19 @@
         <v>942169</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>885984</v>
+        <v>890629</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>990255</v>
+        <v>1000022</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.27157145307383</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2553766508204774</v>
+        <v>0.2567155560587651</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2854315726960571</v>
+        <v>0.2882470571104822</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1529</v>
@@ -5818,19 +5818,19 @@
         <v>1634322</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1558256</v>
+        <v>1562949</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1703226</v>
+        <v>1705362</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2386681528065877</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2275598649766525</v>
+        <v>0.2282451152674021</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2487304935390021</v>
+        <v>0.2490424038863482</v>
       </c>
     </row>
     <row r="37">
@@ -5847,19 +5847,19 @@
         <v>643131</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>593561</v>
+        <v>598002</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>686802</v>
+        <v>693161</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1903682829792981</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1756952807790609</v>
+        <v>0.1770098230248948</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2032947828516035</v>
+        <v>0.2051771837281658</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>858</v>
@@ -5868,19 +5868,19 @@
         <v>937000</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>884528</v>
+        <v>879533</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>996282</v>
+        <v>996500</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2700813090764131</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2549568171290016</v>
+        <v>0.2535171001354798</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2871689530388859</v>
+        <v>0.2872318767070333</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1458</v>
@@ -5889,19 +5889,19 @@
         <v>1580131</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1504062</v>
+        <v>1506140</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1651550</v>
+        <v>1649559</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.230754289292175</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.219645519212531</v>
+        <v>0.2199490074211601</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2411839365273773</v>
+        <v>0.2408931879342134</v>
       </c>
     </row>
     <row r="38">
@@ -6233,19 +6233,19 @@
         <v>44231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32069</v>
+        <v>32611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58796</v>
+        <v>59893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06679752837969705</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04843032656737756</v>
+        <v>0.04924897256340425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08879418535956661</v>
+        <v>0.09045044235527556</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6254,19 +6254,19 @@
         <v>14547</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8798</v>
+        <v>8618</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23153</v>
+        <v>23231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02196218652132166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01328228547803915</v>
+        <v>0.0130104959430234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03495577796543282</v>
+        <v>0.03507248989839207</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -6275,19 +6275,19 @@
         <v>58778</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44824</v>
+        <v>44816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76473</v>
+        <v>76256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04437656169100276</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03384137535466362</v>
+        <v>0.03383541563684255</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05773637833720901</v>
+        <v>0.05757183329681883</v>
       </c>
     </row>
     <row r="5">
@@ -6304,19 +6304,19 @@
         <v>79137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64070</v>
+        <v>63702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98891</v>
+        <v>98773</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1195128451707357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0967578440090696</v>
+        <v>0.09620227318381624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1493450433010611</v>
+        <v>0.1491663160567871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -6325,19 +6325,19 @@
         <v>47669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35890</v>
+        <v>34471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63588</v>
+        <v>61719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07196881944359557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05418552301961244</v>
+        <v>0.05204293269822052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09600182424780501</v>
+        <v>0.09317988831695657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -6346,19 +6346,19 @@
         <v>126807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>106583</v>
+        <v>106046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150717</v>
+        <v>149512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09573733743753204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08046902798582255</v>
+        <v>0.08006309341497302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1137893825102259</v>
+        <v>0.1128795464789613</v>
       </c>
     </row>
     <row r="6">
@@ -6375,19 +6375,19 @@
         <v>154069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>133772</v>
+        <v>134433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175813</v>
+        <v>176270</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2326749298160653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2020218223480797</v>
+        <v>0.203020337153955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2655114578436797</v>
+        <v>0.266202768664416</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>85</v>
@@ -6396,19 +6396,19 @@
         <v>83530</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68280</v>
+        <v>68715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100600</v>
+        <v>101676</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1261094302749848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1030864587087978</v>
+        <v>0.1037427568100425</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1518802455316033</v>
+        <v>0.1535060227981175</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>239</v>
@@ -6417,19 +6417,19 @@
         <v>237600</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>213494</v>
+        <v>212138</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>265300</v>
+        <v>266165</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1793843466211855</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1611851297863432</v>
+        <v>0.1601611647134967</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2002978411469383</v>
+        <v>0.20095091706682</v>
       </c>
     </row>
     <row r="7">
@@ -6446,19 +6446,19 @@
         <v>179724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158675</v>
+        <v>157317</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202170</v>
+        <v>203338</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2714190210343413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2396306754797798</v>
+        <v>0.2375790952256276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3053155260040378</v>
+        <v>0.3070806563275304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -6467,19 +6467,19 @@
         <v>203867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179669</v>
+        <v>181937</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227249</v>
+        <v>230798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3077884852704855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2712550335810129</v>
+        <v>0.2746792748094948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3430893440447383</v>
+        <v>0.3484475371445956</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>380</v>
@@ -6488,19 +6488,19 @@
         <v>383592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>351990</v>
+        <v>352006</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>417990</v>
+        <v>417873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.289606426601584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.265747334048358</v>
+        <v>0.2657594142553224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3155765820265519</v>
+        <v>0.3154878716132912</v>
       </c>
     </row>
     <row r="8">
@@ -6517,19 +6517,19 @@
         <v>123616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104899</v>
+        <v>104568</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144667</v>
+        <v>142766</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1866843183886875</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1584187288071962</v>
+        <v>0.1579173538749975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2184747748297431</v>
+        <v>0.2156041218373641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -6538,19 +6538,19 @@
         <v>170006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148758</v>
+        <v>149622</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192925</v>
+        <v>193900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2566673584335022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2245870711026215</v>
+        <v>0.2258915795615424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2912680518831557</v>
+        <v>0.2927407123484807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>290</v>
@@ -6559,19 +6559,19 @@
         <v>293623</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>266418</v>
+        <v>263112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>327425</v>
+        <v>325745</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.221680982729393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.201141742492294</v>
+        <v>0.1986459746899629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2472012356207295</v>
+        <v>0.2459325879366791</v>
       </c>
     </row>
     <row r="9">
@@ -6588,19 +6588,19 @@
         <v>81388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66031</v>
+        <v>64419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>102112</v>
+        <v>100243</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1229113572104732</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09971984642099999</v>
+        <v>0.09728596465217056</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1542085097346497</v>
+        <v>0.1513859093190439</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -6609,19 +6609,19 @@
         <v>142741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>122013</v>
+        <v>120837</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>163981</v>
+        <v>164080</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2155037200561102</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1842087247626433</v>
+        <v>0.1824331283490656</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.247571117122967</v>
+        <v>0.2477191983967043</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>210</v>
@@ -6630,19 +6630,19 @@
         <v>224129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>194687</v>
+        <v>197622</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>250909</v>
+        <v>251527</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1692143449193027</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1469861495319177</v>
+        <v>0.1492021899611383</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1894330631736581</v>
+        <v>0.18989900279506</v>
       </c>
     </row>
     <row r="10">
@@ -6734,19 +6734,19 @@
         <v>39093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28245</v>
+        <v>27430</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54219</v>
+        <v>52804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03874628462975944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02799448975308477</v>
+        <v>0.02718718375372181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05373841171499347</v>
+        <v>0.05233662382356633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -6755,19 +6755,19 @@
         <v>19140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11703</v>
+        <v>11885</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30084</v>
+        <v>29902</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01840937995296704</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01125585987179208</v>
+        <v>0.01143127353964677</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02893510632449322</v>
+        <v>0.02876017962702674</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -6776,19 +6776,19 @@
         <v>58233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45735</v>
+        <v>43827</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77568</v>
+        <v>74922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02842507723540853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02232436273796339</v>
+        <v>0.0213933287618605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03786322970622311</v>
+        <v>0.03657152415063569</v>
       </c>
     </row>
     <row r="12">
@@ -6805,19 +6805,19 @@
         <v>75997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59341</v>
+        <v>60074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92823</v>
+        <v>94595</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07532430713048376</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0588158488442173</v>
+        <v>0.05954169770126969</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09200069088233072</v>
+        <v>0.09375725697685845</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -6826,19 +6826,19 @@
         <v>55188</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40437</v>
+        <v>41394</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70740</v>
+        <v>70037</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05308005266164086</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03889262846575985</v>
+        <v>0.03981274003722959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06803804939029764</v>
+        <v>0.06736195597295581</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>125</v>
@@ -6847,19 +6847,19 @@
         <v>131185</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>110638</v>
+        <v>110846</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>157404</v>
+        <v>156688</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06403509830768588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05400532686717318</v>
+        <v>0.05410668885490245</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07683327390392929</v>
+        <v>0.07648353003281545</v>
       </c>
     </row>
     <row r="13">
@@ -6876,19 +6876,19 @@
         <v>201054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175802</v>
+        <v>175531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228347</v>
+        <v>229640</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1992733112841884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1742451307047088</v>
+        <v>0.1739757359037852</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.226324239231756</v>
+        <v>0.2276063122909526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -6897,19 +6897,19 @@
         <v>94745</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77251</v>
+        <v>78110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114349</v>
+        <v>114016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09112568207266394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07429997197136873</v>
+        <v>0.07512628901930057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1099811687397381</v>
+        <v>0.1096608217639553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>279</v>
@@ -6918,19 +6918,19 @@
         <v>295799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265878</v>
+        <v>263671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>329262</v>
+        <v>329058</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1443871755600395</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1297820933157834</v>
+        <v>0.1287046035656403</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1607213284794986</v>
+        <v>0.1606218758411411</v>
       </c>
     </row>
     <row r="14">
@@ -6947,19 +6947,19 @@
         <v>340000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>309758</v>
+        <v>312436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372504</v>
+        <v>373434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3369887097469015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3070139217022515</v>
+        <v>0.3096684976905067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3692045341609575</v>
+        <v>0.3701265135942182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -6968,19 +6968,19 @@
         <v>351617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321386</v>
+        <v>320508</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384222</v>
+        <v>382341</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3381864870829431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.309110773807887</v>
+        <v>0.3082661755880828</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3695464520074893</v>
+        <v>0.3677368136932774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>645</v>
@@ -6989,19 +6989,19 @@
         <v>691617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>649376</v>
+        <v>649550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>738219</v>
+        <v>736915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3375965951893526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.316977463568915</v>
+        <v>0.3170624025712514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3603442170958454</v>
+        <v>0.3597077795200182</v>
       </c>
     </row>
     <row r="15">
@@ -7018,19 +7018,19 @@
         <v>198153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>172844</v>
+        <v>171938</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>226265</v>
+        <v>221878</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1963976223679773</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1713131230777254</v>
+        <v>0.17041541545995</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2242611814882965</v>
+        <v>0.2199121506648745</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>275</v>
@@ -7039,19 +7039,19 @@
         <v>292710</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>264358</v>
+        <v>261854</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>325705</v>
+        <v>324055</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2815299145067686</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2542603432495729</v>
+        <v>0.2518523611226482</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3132647900669289</v>
+        <v>0.3116773343341113</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>459</v>
@@ -7060,19 +7060,19 @@
         <v>490863</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>452517</v>
+        <v>451840</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>531686</v>
+        <v>536187</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2396032161928642</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2208856481260999</v>
+        <v>0.2205553468265567</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.25953018806664</v>
+        <v>0.2617273308409694</v>
       </c>
     </row>
     <row r="16">
@@ -7089,19 +7089,19 @@
         <v>154640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132769</v>
+        <v>132929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>179417</v>
+        <v>179091</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1532697648406896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1315932271015165</v>
+        <v>0.1317512757308739</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1778275551280447</v>
+        <v>0.1775048639112891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>209</v>
@@ -7110,19 +7110,19 @@
         <v>226313</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197075</v>
+        <v>198266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251832</v>
+        <v>255917</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2176684837230164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.18954782938997</v>
+        <v>0.1906928791017646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2422125848980629</v>
+        <v>0.2461418517303727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>350</v>
@@ -7131,19 +7131,19 @@
         <v>380952</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>342686</v>
+        <v>344531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417648</v>
+        <v>418430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1859528375146493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1672743565798915</v>
+        <v>0.1681744897963742</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2038650696363753</v>
+        <v>0.2042469159350654</v>
       </c>
     </row>
     <row r="17">
@@ -7235,19 +7235,19 @@
         <v>26127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17489</v>
+        <v>16776</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39483</v>
+        <v>38979</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03468115999646089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02321495769900273</v>
+        <v>0.02226819570024499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05241005519288842</v>
+        <v>0.0517408548625017</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -7256,19 +7256,19 @@
         <v>13827</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7874</v>
+        <v>7730</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22975</v>
+        <v>22537</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01774870141550147</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01010725739403259</v>
+        <v>0.009922161137896301</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02949122156024907</v>
+        <v>0.02892837260437198</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -7277,19 +7277,19 @@
         <v>39954</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28639</v>
+        <v>29745</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54578</v>
+        <v>54982</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02607289496369085</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01868917361609234</v>
+        <v>0.01941059061068549</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03561656971930784</v>
+        <v>0.03588001649592925</v>
       </c>
     </row>
     <row r="19">
@@ -7306,19 +7306,19 @@
         <v>93437</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75282</v>
+        <v>76550</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113652</v>
+        <v>114593</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1240300083649335</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09993057082394778</v>
+        <v>0.101613552884</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1508638641995283</v>
+        <v>0.1521124197394602</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -7327,19 +7327,19 @@
         <v>50524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37598</v>
+        <v>38174</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65486</v>
+        <v>65357</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06485367557623532</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04826122817446712</v>
+        <v>0.04900034718519025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08405917987434462</v>
+        <v>0.08389343558572954</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -7348,19 +7348,19 @@
         <v>143961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>120642</v>
+        <v>122187</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165786</v>
+        <v>172447</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09394544894452297</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07872771743615255</v>
+        <v>0.07973620731726812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1081878555129153</v>
+        <v>0.1125344098896712</v>
       </c>
     </row>
     <row r="20">
@@ -7377,19 +7377,19 @@
         <v>115221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96852</v>
+        <v>97095</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136202</v>
+        <v>137540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1529465765565489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1285630278255908</v>
+        <v>0.1288853967405252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1807967127155554</v>
+        <v>0.1825732303537161</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -7398,19 +7398,19 @@
         <v>94902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77950</v>
+        <v>74088</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>114399</v>
+        <v>113788</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1218173545617568</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1000573479959596</v>
+        <v>0.09510024966673762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1468439664959858</v>
+        <v>0.1460603048904396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -7419,19 +7419,19 @@
         <v>210123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>183791</v>
+        <v>183346</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>240679</v>
+        <v>237709</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1371208421002169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1199375792129918</v>
+        <v>0.1196471103225282</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1570611195624529</v>
+        <v>0.1551231107902517</v>
       </c>
     </row>
     <row r="21">
@@ -7448,19 +7448,19 @@
         <v>218207</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>192056</v>
+        <v>195364</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242214</v>
+        <v>242675</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2896519805980751</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2549389417990324</v>
+        <v>0.2593295701547758</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3215195306523493</v>
+        <v>0.3221318321855507</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>193</v>
@@ -7469,19 +7469,19 @@
         <v>205746</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>181498</v>
+        <v>182066</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>231289</v>
+        <v>231714</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2640985361628695</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2329739674050025</v>
+        <v>0.2337031671910915</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.296886833639448</v>
+        <v>0.2974322949012749</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>394</v>
@@ -7490,19 +7490,19 @@
         <v>423952</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>387372</v>
+        <v>386828</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>459068</v>
+        <v>460897</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2766609066115856</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2527891233954253</v>
+        <v>0.2524343889322627</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2995762417038217</v>
+        <v>0.3007699829755459</v>
       </c>
     </row>
     <row r="22">
@@ -7519,19 +7519,19 @@
         <v>148371</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127434</v>
+        <v>128419</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>170436</v>
+        <v>171237</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.196951194490447</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1691586093316888</v>
+        <v>0.1704660214280348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2262406861844789</v>
+        <v>0.2273038971939181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>207</v>
@@ -7540,19 +7540,19 @@
         <v>219672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192618</v>
+        <v>195933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244884</v>
+        <v>247431</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2819741910733088</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2472479161776931</v>
+        <v>0.2515027758218356</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3143373659838562</v>
+        <v>0.3176058745665942</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>346</v>
@@ -7561,19 +7561,19 @@
         <v>368043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>337087</v>
+        <v>336364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>403315</v>
+        <v>409056</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2401758972095547</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.219974926231388</v>
+        <v>0.2195025892122965</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2631935778075055</v>
+        <v>0.2669400610779411</v>
       </c>
     </row>
     <row r="23">
@@ -7590,19 +7590,19 @@
         <v>151978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>132110</v>
+        <v>131036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>176287</v>
+        <v>175132</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2017390799935347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1753657139755286</v>
+        <v>0.1739403448131827</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2340064073173723</v>
+        <v>0.2324738405044429</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -7611,19 +7611,19 @@
         <v>194379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>169900</v>
+        <v>170625</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>219122</v>
+        <v>220647</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2495075412103281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2180869317786852</v>
+        <v>0.2190168317499751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2812682376299966</v>
+        <v>0.2832265670167124</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>324</v>
@@ -7632,19 +7632,19 @@
         <v>346357</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>314014</v>
+        <v>312023</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>380163</v>
+        <v>380773</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.226024010170429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2049178011069983</v>
+        <v>0.203618594374629</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.248084924841339</v>
+        <v>0.2484831939335915</v>
       </c>
     </row>
     <row r="24">
@@ -7736,19 +7736,19 @@
         <v>53170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40753</v>
+        <v>39546</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70147</v>
+        <v>69318</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05736627693975467</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04396874132474447</v>
+        <v>0.04266730056988896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07568291948219218</v>
+        <v>0.07478846702427916</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>30131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21009</v>
+        <v>20247</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43856</v>
+        <v>41390</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02907153010541896</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02027013226395505</v>
+        <v>0.01953541484482475</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04231421030728175</v>
+        <v>0.03993473207116872</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -7778,19 +7778,19 @@
         <v>83301</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66271</v>
+        <v>64320</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104719</v>
+        <v>102369</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.042429180416991</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03375500324780079</v>
+        <v>0.03276095692082227</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05333829880110777</v>
+        <v>0.05214108917311175</v>
       </c>
     </row>
     <row r="26">
@@ -7807,19 +7807,19 @@
         <v>69277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54154</v>
+        <v>54371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>86778</v>
+        <v>87247</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0747440933992484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05842741343856243</v>
+        <v>0.05866174826769462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09362676189140347</v>
+        <v>0.09413198557397952</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -7828,19 +7828,19 @@
         <v>39880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27936</v>
+        <v>28373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54151</v>
+        <v>55063</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03847724829524121</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02695365308420637</v>
+        <v>0.02737540119861387</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05224717627230895</v>
+        <v>0.05312698513676558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -7849,19 +7849,19 @@
         <v>109156</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>88732</v>
+        <v>87301</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>132349</v>
+        <v>132659</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05559844176764253</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04519521960378698</v>
+        <v>0.04446640286001968</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06741160946629736</v>
+        <v>0.06756929352167482</v>
       </c>
     </row>
     <row r="27">
@@ -7878,19 +7878,19 @@
         <v>140095</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>120626</v>
+        <v>119660</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>162651</v>
+        <v>161175</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.151150975259407</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1301457903494938</v>
+        <v>0.1291036880400495</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1754872077530322</v>
+        <v>0.1738946461451526</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>83</v>
@@ -7899,19 +7899,19 @@
         <v>89425</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>73749</v>
+        <v>72186</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>110492</v>
+        <v>109875</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08628041359925658</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07115582505485868</v>
+        <v>0.06964714433715856</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1066064512361804</v>
+        <v>0.1060111097525804</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>222</v>
@@ -7920,19 +7920,19 @@
         <v>229520</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>201050</v>
+        <v>201968</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>261437</v>
+        <v>260510</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1169051187166051</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.10240421639083</v>
+        <v>0.1028718580857697</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1331617708961266</v>
+        <v>0.1326896916734679</v>
       </c>
     </row>
     <row r="28">
@@ -7949,19 +7949,19 @@
         <v>297453</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>269008</v>
+        <v>270796</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>324609</v>
+        <v>328183</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3209277400657947</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2902373691262884</v>
+        <v>0.2921669977568024</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3502267328828297</v>
+        <v>0.3540828622698324</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>316</v>
@@ -7970,19 +7970,19 @@
         <v>337846</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>307119</v>
+        <v>306896</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370489</v>
+        <v>368791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3259653238702798</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2963193797374238</v>
+        <v>0.2961035757801327</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3574601647394108</v>
+        <v>0.3558222917500863</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>621</v>
@@ -7991,19 +7991,19 @@
         <v>635299</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>590325</v>
+        <v>596437</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>678457</v>
+        <v>677414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3235871339090997</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3006795804648946</v>
+        <v>0.3037928931314439</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3455696764761564</v>
+        <v>0.3450382019373311</v>
       </c>
     </row>
     <row r="29">
@@ -8020,19 +8020,19 @@
         <v>218607</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>195895</v>
+        <v>193016</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>245173</v>
+        <v>246843</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2358590930174905</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2113552640112907</v>
+        <v>0.2082489615247804</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2645219684882924</v>
+        <v>0.2663233717803175</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>259</v>
@@ -8041,19 +8041,19 @@
         <v>282225</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>252995</v>
+        <v>254217</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>312008</v>
+        <v>314784</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2723003783460703</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.24409796062983</v>
+        <v>0.2452777017660019</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.301036217645581</v>
+        <v>0.303714132642163</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>478</v>
@@ -8062,19 +8062,19 @@
         <v>500832</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>463905</v>
+        <v>464279</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>544500</v>
+        <v>540359</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2550968334911401</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2362882383522233</v>
+        <v>0.2364785776888816</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2773389321742963</v>
+        <v>0.2752297024230597</v>
       </c>
     </row>
     <row r="30">
@@ -8091,19 +8091,19 @@
         <v>148252</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>124988</v>
+        <v>127030</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>170372</v>
+        <v>173362</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1599518213183047</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.134852353451812</v>
+        <v>0.1370554828598606</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1838178080022196</v>
+        <v>0.1870437000911787</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>230</v>
@@ -8112,19 +8112,19 @@
         <v>256941</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>228423</v>
+        <v>231302</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>287980</v>
+        <v>285559</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2479051057837331</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2203901911078053</v>
+        <v>0.2231680731561303</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2778527959203388</v>
+        <v>0.2755167914825891</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>373</v>
@@ -8133,19 +8133,19 @@
         <v>405193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>365273</v>
+        <v>367515</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>444571</v>
+        <v>442143</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2063832916985216</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1860503509597613</v>
+        <v>0.1871923357749677</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2264403493624273</v>
+        <v>0.2252040951576269</v>
       </c>
     </row>
     <row r="31">
@@ -8237,19 +8237,19 @@
         <v>162620</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>139030</v>
+        <v>137716</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>192310</v>
+        <v>189472</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04852463862250911</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04148554091132147</v>
+        <v>0.04109320235873548</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05738380868289838</v>
+        <v>0.05653699929506949</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -8258,19 +8258,19 @@
         <v>77646</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>60474</v>
+        <v>62269</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94613</v>
+        <v>97984</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02207364129412512</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01719184385466143</v>
+        <v>0.0177024192563289</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02689737323111908</v>
+        <v>0.02785560840721363</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>222</v>
@@ -8279,19 +8279,19 @@
         <v>240266</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>209593</v>
+        <v>209951</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>272580</v>
+        <v>274461</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03497899404873878</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03051352016346436</v>
+        <v>0.03056553785207117</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03968339772179565</v>
+        <v>0.03995721719614261</v>
       </c>
     </row>
     <row r="33">
@@ -8308,19 +8308,19 @@
         <v>317848</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>281264</v>
+        <v>281478</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>352191</v>
+        <v>352439</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0948434273284003</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08392696836487307</v>
+        <v>0.0839907426617318</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1050908119344381</v>
+        <v>0.1051649977822573</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>181</v>
@@ -8329,19 +8329,19 @@
         <v>193261</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>166869</v>
+        <v>169055</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>222840</v>
+        <v>222111</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05494167274379352</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04743880070677592</v>
+        <v>0.04806021020592179</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06335041138229855</v>
+        <v>0.06314330918624167</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>479</v>
@@ -8350,19 +8350,19 @@
         <v>511110</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>469297</v>
+        <v>465387</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>555028</v>
+        <v>558605</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0744096047861818</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06832232967521326</v>
+        <v>0.06775315601081992</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08080341832211038</v>
+        <v>0.0813241264586876</v>
       </c>
     </row>
     <row r="34">
@@ -8379,19 +8379,19 @@
         <v>610439</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>566988</v>
+        <v>563928</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>654463</v>
+        <v>655766</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1821501700249097</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1691846486449302</v>
+        <v>0.168271444038226</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1952866026567677</v>
+        <v>0.195675155330499</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>346</v>
@@ -8400,19 +8400,19 @@
         <v>362601</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>328160</v>
+        <v>325795</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>400513</v>
+        <v>399068</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1030828939145367</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09329176474493649</v>
+        <v>0.09261935492117437</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.113860772465487</v>
+        <v>0.1134498805624043</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>933</v>
@@ -8421,19 +8421,19 @@
         <v>973041</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>914082</v>
+        <v>913343</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1026157</v>
+        <v>1033401</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1416595523627171</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1330761242484053</v>
+        <v>0.132968542614699</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1493924579060764</v>
+        <v>0.1504471140961909</v>
       </c>
     </row>
     <row r="35">
@@ -8450,19 +8450,19 @@
         <v>1035384</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>980338</v>
+        <v>984886</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1089345</v>
+        <v>1087268</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3089503467630391</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2925250458579152</v>
+        <v>0.2938820221448542</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3250518068810289</v>
+        <v>0.3244320819081766</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1045</v>
@@ -8471,19 +8471,19 @@
         <v>1099075</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1041753</v>
+        <v>1045776</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1156564</v>
+        <v>1155313</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3124530408237872</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.296157092780208</v>
+        <v>0.2973007754206984</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3287961691759708</v>
+        <v>0.3284407932502406</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2040</v>
@@ -8492,19 +8492,19 @@
         <v>2134460</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2060251</v>
+        <v>2061709</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2213464</v>
+        <v>2210681</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3107440881561712</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2999404530035878</v>
+        <v>0.3001525983455012</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3222458101500644</v>
+        <v>0.3218406186083224</v>
       </c>
     </row>
     <row r="36">
@@ -8521,19 +8521,19 @@
         <v>688747</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>642213</v>
+        <v>643076</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>736778</v>
+        <v>739933</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2055165406009326</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1916312782109911</v>
+        <v>0.1918887023572832</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2198487085127992</v>
+        <v>0.2207898978589275</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>911</v>
@@ -8542,19 +8542,19 @@
         <v>964613</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>911557</v>
+        <v>911822</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1021979</v>
+        <v>1016151</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2742272016095053</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2591438762664301</v>
+        <v>0.2592192803392719</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2905356005620829</v>
+        <v>0.2888787755691344</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1573</v>
@@ -8563,19 +8563,19 @@
         <v>1653361</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1584304</v>
+        <v>1583019</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1724868</v>
+        <v>1725439</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.240703500884362</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2306499082226749</v>
+        <v>0.2304629319072098</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2511139353988399</v>
+        <v>0.2511969616234609</v>
       </c>
     </row>
     <row r="37">
@@ -8592,19 +8592,19 @@
         <v>536257</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>492935</v>
+        <v>494057</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>582825</v>
+        <v>580052</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1600148766602093</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1470878861501962</v>
+        <v>0.1474227281847625</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.173910352317205</v>
+        <v>0.1730828700761108</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>756</v>
@@ -8613,19 +8613,19 @@
         <v>820373</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>771251</v>
+        <v>769599</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>874316</v>
+        <v>873604</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2332215496142522</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.21925684815466</v>
+        <v>0.2187871309451215</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2485569173816374</v>
+        <v>0.2483542762007966</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1257</v>
@@ -8634,19 +8634,19 @@
         <v>1356631</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1291745</v>
+        <v>1292551</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1416946</v>
+        <v>1426682</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1975042597618291</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1880578886860956</v>
+        <v>0.1881752438102306</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2062851924389757</v>
+        <v>0.2077026675634769</v>
       </c>
     </row>
     <row r="38">
